--- a/data_process/xlsx/jongno_C5_processed.xlsx
+++ b/data_process/xlsx/jongno_C5_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>create_time</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,8 +561,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>127.0009767</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37.5833797</v>
       </c>
     </row>
     <row r="3">
@@ -611,8 +627,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>127.0003476</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37.5836983</v>
       </c>
     </row>
     <row r="4">
@@ -671,8 +693,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>126.9848766</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.5742648</v>
       </c>
     </row>
     <row r="5">
@@ -731,8 +759,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>127.0008253</v>
+      </c>
+      <c r="N5" t="n">
+        <v>37.5841148</v>
       </c>
     </row>
     <row r="6">
@@ -791,8 +825,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>127.0025975</v>
+      </c>
+      <c r="N6" t="n">
+        <v>37.581862</v>
       </c>
     </row>
     <row r="7">
@@ -851,8 +891,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>127.0024406</v>
+      </c>
+      <c r="N7" t="n">
+        <v>37.5829368</v>
       </c>
     </row>
     <row r="8">
@@ -911,8 +957,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>127.0024449</v>
+      </c>
+      <c r="N8" t="n">
+        <v>37.5832572</v>
       </c>
     </row>
     <row r="9">
@@ -971,8 +1023,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>127.0021374</v>
+      </c>
+      <c r="N9" t="n">
+        <v>37.582893</v>
       </c>
     </row>
     <row r="10">
@@ -1031,8 +1089,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>126.9865096</v>
+      </c>
+      <c r="N10" t="n">
+        <v>37.5690643</v>
       </c>
     </row>
     <row r="11">
@@ -1091,8 +1155,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>127.0028255</v>
+      </c>
+      <c r="N11" t="n">
+        <v>37.5816161</v>
       </c>
     </row>
     <row r="12">
@@ -1151,8 +1221,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>127.0028445</v>
+      </c>
+      <c r="N12" t="n">
+        <v>37.5824811</v>
       </c>
     </row>
     <row r="13">
@@ -1211,8 +1287,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>127.0028633</v>
+      </c>
+      <c r="N13" t="n">
+        <v>37.5827358</v>
       </c>
     </row>
     <row r="14">
@@ -1271,8 +1353,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>126.9854332</v>
+      </c>
+      <c r="N14" t="n">
+        <v>37.5632664</v>
       </c>
     </row>
     <row r="15">
@@ -1331,8 +1419,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>126.9844144</v>
+      </c>
+      <c r="N15" t="n">
+        <v>37.5636223</v>
       </c>
     </row>
     <row r="16">
@@ -1391,8 +1485,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>127.0042962</v>
+      </c>
+      <c r="N16" t="n">
+        <v>37.5801069</v>
       </c>
     </row>
     <row r="17">
@@ -1451,8 +1551,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:21</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>126.9825347</v>
+      </c>
+      <c r="N17" t="n">
+        <v>37.5786649</v>
       </c>
     </row>
   </sheetData>

--- a/data_process/xlsx/jongno_C5_processed.xlsx
+++ b/data_process/xlsx/jongno_C5_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,24 +491,34 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>create_time</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>lng</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>naver_place_id</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>비밀의화원 시네마틱 혜화점</t>
+          <t>HIDE AND SEEK 쌈지길점</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -523,11 +533,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>595</v>
+        <v>1045</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -541,12 +551,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>대명길</t>
+          <t>인사동길</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>9 지하2층</t>
+          <t>44 쌈지길 B2층</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -556,25 +566,33 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>02-763-3289</t>
+          <t>010-3235-5900</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>127.0009767</v>
+          <t>https://pcmap.place.naver.com/place/1007103754/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143073025</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>37.5833797</v>
+        <v>126.9848766</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37.5742648</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1007103754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>시크릿챔버</t>
+          <t>비밀의화원 시네마틱 혜화점</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -593,7 +611,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -607,12 +625,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>창경궁로</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>258-12 2층</t>
+          <t>9 지하2층</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -622,25 +640,33 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>02-745-1614</t>
+          <t>02-763-3289</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>127.0003476</v>
+          <t>https://pcmap.place.naver.com/place/1798307935/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143084652</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
       </c>
       <c r="N3" t="n">
-        <v>37.5836983</v>
+        <v>127.0009767</v>
+      </c>
+      <c r="O3" t="n">
+        <v>37.5833797</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1798307935</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HIDE AND SEEK 쌈지길점</t>
+          <t>시크릿챔버</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -655,11 +681,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -673,12 +699,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>인사동길</t>
+          <t>창경궁로</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>44 쌈지길 B2층</t>
+          <t>258-12 2층</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -688,25 +714,33 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>010-3235-5900</t>
+          <t>02-745-1614</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>126.9848766</v>
+          <t>https://pcmap.place.naver.com/place/37641764/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143094148</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
       </c>
       <c r="N4" t="n">
-        <v>37.5742648</v>
+        <v>127.0003476</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37.5836983</v>
+      </c>
+      <c r="P4" t="n">
+        <v>37641764</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>상상의문 대학로점</t>
+          <t>셜록홈즈 대학로점</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -721,7 +755,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -739,12 +773,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>창경궁로34길</t>
+          <t>대학로10길</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>18-5 지하 3층</t>
+          <t>5 4층</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -754,25 +788,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>02-765-7771</t>
+          <t>0507-1302-0198</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>127.0008253</v>
+          <t>https://pcmap.place.naver.com/place/1907056844/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143103525</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>37.5841148</v>
+        <v>127.0025975</v>
+      </c>
+      <c r="O5" t="n">
+        <v>37.581862</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1907056844</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>셜록홈즈 대학로점</t>
+          <t>상상의문 대학로점</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -791,7 +833,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -805,12 +847,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>대학로10길</t>
+          <t>창경궁로34길</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5 4층</t>
+          <t>18-5 지하 3층</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -820,19 +862,27 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0507-1302-0198</t>
+          <t>02-765-7771</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>127.0025975</v>
+          <t>https://pcmap.place.naver.com/place/1629617329/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143112669</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
       </c>
       <c r="N6" t="n">
-        <v>37.581862</v>
+        <v>127.0008253</v>
+      </c>
+      <c r="O6" t="n">
+        <v>37.5841148</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1629617329</v>
       </c>
     </row>
     <row r="7">
@@ -853,11 +903,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1027</v>
+        <v>153</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -891,14 +941,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+          <t>https://pcmap.place.naver.com/place/1203808746/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143121819</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>127.0024406</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>37.5829368</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1203808746</v>
       </c>
     </row>
     <row r="8">
@@ -957,20 +1015,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+          <t>https://pcmap.place.naver.com/place/491249986/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143132680</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>127.0024449</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>37.5832572</v>
+      </c>
+      <c r="P8" t="n">
+        <v>491249986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>비밀의화원 대학로점</t>
+          <t>셜록홈즈 종각점</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1003,12 +1069,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>삼일대로17길</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>130 지하 1층</t>
+          <t>17 4층 셜록홈즈 종각</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1018,25 +1084,33 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0507-1373-8901</t>
+          <t>0507-1358-0522</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>127.0021374</v>
+          <t>https://pcmap.place.naver.com/place/1186945281/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143142296</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
       </c>
       <c r="N9" t="n">
-        <v>37.582893</v>
+        <v>126.9865096</v>
+      </c>
+      <c r="O9" t="n">
+        <v>37.5690643</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1186945281</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>셜록홈즈 종각점</t>
+          <t>비트포비아 대학로</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1051,11 +1125,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1169</v>
+        <v>167</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1069,12 +1143,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>삼일대로17길</t>
+          <t>대학로10길</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>17 4층 셜록홈즈 종각</t>
+          <t>12 5층</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1084,25 +1158,33 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0507-1358-0522</t>
+          <t>02-742-5252</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>126.9865096</v>
+          <t>https://pcmap.place.naver.com/place/37663526/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143151495</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
       </c>
       <c r="N10" t="n">
-        <v>37.5690643</v>
+        <v>127.0028255</v>
+      </c>
+      <c r="O10" t="n">
+        <v>37.5816161</v>
+      </c>
+      <c r="P10" t="n">
+        <v>37663526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>비트포비아 대학로</t>
+          <t>비밀의화원 대학로점</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1117,11 +1199,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>168</v>
+        <v>1179</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1135,12 +1217,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>대학로10길</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12 5층</t>
+          <t>130 지하 1층</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1150,19 +1232,27 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>02-742-5252</t>
+          <t>0507-1373-8901</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>127.0028255</v>
+          <t>https://pcmap.place.naver.com/place/1625220556/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143160469</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
       </c>
       <c r="N11" t="n">
-        <v>37.5816161</v>
+        <v>127.0021374</v>
+      </c>
+      <c r="O11" t="n">
+        <v>37.582893</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1625220556</v>
       </c>
     </row>
     <row r="12">
@@ -1183,11 +1273,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>410</v>
+        <v>1179</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1221,14 +1311,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+          <t>https://pcmap.place.naver.com/place/1954470905/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143170041</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>127.0028445</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>37.5824811</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1954470905</v>
       </c>
     </row>
     <row r="13">
@@ -1249,11 +1347,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1287,14 +1385,22 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+          <t>https://pcmap.place.naver.com/place/37429906/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143179281</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>127.0028633</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>37.5827358</v>
+      </c>
+      <c r="P13" t="n">
+        <v>37429906</v>
       </c>
     </row>
     <row r="14">
@@ -1353,14 +1459,22 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+          <t>https://pcmap.place.naver.com/place/37629951/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143188359</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>126.9854332</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>37.5632664</v>
+      </c>
+      <c r="P14" t="n">
+        <v>37629951</v>
       </c>
     </row>
     <row r="15">
@@ -1385,7 +1499,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1419,20 +1533,28 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+          <t>https://pcmap.place.naver.com/place/215618975/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143197511</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>126.9844144</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>37.5636223</v>
+      </c>
+      <c r="P15" t="n">
+        <v>215618975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>룸 이에스씨</t>
+          <t>cafe 탈출카페</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1447,11 +1569,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1465,12 +1587,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>동숭길</t>
+          <t>율곡로3길</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>41 5층</t>
+          <t>66-7</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1480,85 +1602,27 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>02-765-0250</t>
+          <t>02-4746-4643</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>127.0042962</v>
+          <t>https://pcmap.place.naver.com/place/946227144/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143206885</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:33:29</t>
+        </is>
       </c>
       <c r="N16" t="n">
-        <v>37.5801069</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>cafe 탈출카페</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>C5</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>방탈출카페</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>종로구</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>율곡로3길</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>66-7</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>jongno</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>02-4746-4643</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2023-08-20 16:44:21</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
         <v>126.9825347</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O16" t="n">
         <v>37.5786649</v>
+      </c>
+      <c r="P16" t="n">
+        <v>946227144</v>
       </c>
     </row>
   </sheetData>

--- a/data_process/xlsx/jongno_C5_processed.xlsx
+++ b/data_process/xlsx/jongno_C5_processed.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -798,7 +798,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -946,7 +946,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-08-27 22:33:29</t>
+          <t>2023-09-05 15:37:06</t>
         </is>
       </c>
       <c r="N16" t="n">

--- a/data_process/xlsx/jongno_C5_processed.xlsx
+++ b/data_process/xlsx/jongno_C5_processed.xlsx
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1045</v>
+        <v>1072</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -571,12 +571,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1007103754/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143073025</t>
+          <t>https://pcmap.place.naver.com/place/1007103754/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9848766&amp;y=37.5742648&amp;timestamp=202309071829</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -645,12 +645,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1798307935/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143084652</t>
+          <t>https://pcmap.place.naver.com/place/1798307935/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0009754&amp;y=37.5835062&amp;timestamp=202309071829</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -666,7 +666,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>시크릿챔버</t>
+          <t>에필로그</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -681,11 +681,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>606</v>
+        <v>163</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -699,12 +699,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>창경궁로</t>
+          <t>대학로8가길</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>258-12 2층</t>
+          <t>48 지층</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -714,33 +714,33 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>02-745-1614</t>
+          <t>0507-1388-8402</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37641764/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143094148</t>
+          <t>https://pcmap.place.naver.com/place/1203808746/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0024406&amp;y=37.5829368&amp;timestamp=202309071829</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>127.0003476</v>
+        <v>127.0024406</v>
       </c>
       <c r="O4" t="n">
-        <v>37.5836983</v>
+        <v>37.5829368</v>
       </c>
       <c r="P4" t="n">
-        <v>37641764</v>
+        <v>1203808746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>셜록홈즈 대학로점</t>
+          <t>시크릿챔버</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>대학로10길</t>
+          <t>창경궁로</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5 4층</t>
+          <t>258-12 2층</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -788,33 +788,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0507-1302-0198</t>
+          <t>02-745-1614</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1907056844/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143103525</t>
+          <t>https://pcmap.place.naver.com/place/37641764/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00033356128282&amp;y=37.583678973869496&amp;timestamp=202309071829</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>127.0025975</v>
+        <v>127.0003476</v>
       </c>
       <c r="O5" t="n">
-        <v>37.581862</v>
+        <v>37.5836983</v>
       </c>
       <c r="P5" t="n">
-        <v>1907056844</v>
+        <v>37641764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>상상의문 대학로점</t>
+          <t>덤앤더머 방탈출카페</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -829,11 +829,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1037</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -847,12 +847,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>창경궁로34길</t>
+          <t>동숭길</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>18-5 지하 3층</t>
+          <t>143 로얄케스트 지하</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -862,33 +862,33 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>02-765-7771</t>
+          <t>02-741-0955</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1629617329/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143112669</t>
+          <t>https://pcmap.place.naver.com/place/491249986/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.002399200485&amp;y=37.5833286004307&amp;timestamp=202309071829</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>127.0008253</v>
+        <v>127.0024449</v>
       </c>
       <c r="O6" t="n">
-        <v>37.5841148</v>
+        <v>37.5832572</v>
       </c>
       <c r="P6" t="n">
-        <v>1629617329</v>
+        <v>491249986</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>에필로그</t>
+          <t>상상의문 대학로점</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -921,12 +921,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>대학로8가길</t>
+          <t>창경궁로34길</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>48 지층</t>
+          <t>18-5 지하 3층</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -936,33 +936,33 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0507-1388-8402</t>
+          <t>02-765-7771</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1203808746/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143121819</t>
+          <t>https://pcmap.place.naver.com/place/1629617329/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0008253&amp;y=37.5841148&amp;timestamp=202309071829</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>127.0024406</v>
+        <v>127.0008253</v>
       </c>
       <c r="O7" t="n">
-        <v>37.5829368</v>
+        <v>37.5841148</v>
       </c>
       <c r="P7" t="n">
-        <v>1203808746</v>
+        <v>1629617329</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>덤앤더머 방탈출카페</t>
+          <t>셜록홈즈 대학로점</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -977,11 +977,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1046</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -995,12 +995,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>동숭길</t>
+          <t>대학로10길</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>143 로얄케스트</t>
+          <t>5 4층</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1010,33 +1010,33 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0507-1414-0955</t>
+          <t>0507-1302-0198</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/491249986/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143132680</t>
+          <t>https://pcmap.place.naver.com/place/1907056844/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0025831&amp;y=37.5818573&amp;timestamp=202309071829</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>127.0024449</v>
+        <v>127.0025975</v>
       </c>
       <c r="O8" t="n">
-        <v>37.5832572</v>
+        <v>37.581862</v>
       </c>
       <c r="P8" t="n">
-        <v>491249986</v>
+        <v>1907056844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>셜록홈즈 종각점</t>
+          <t>비밀의화원 대학로점</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1051,11 +1051,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1069,12 +1069,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>삼일대로17길</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>17 4층 셜록홈즈 종각</t>
+          <t>130 지하 1층</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1084,33 +1084,33 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0507-1358-0522</t>
+          <t>0507-1373-8901</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1186945281/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143142296</t>
+          <t>https://pcmap.place.naver.com/place/1625220556/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0021374&amp;y=37.582893&amp;timestamp=202309071829</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>126.9865096</v>
+        <v>127.0021374</v>
       </c>
       <c r="O9" t="n">
-        <v>37.5690643</v>
+        <v>37.582893</v>
       </c>
       <c r="P9" t="n">
-        <v>1186945281</v>
+        <v>1625220556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>비트포비아 대학로</t>
+          <t>셜록홈즈 종각점</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>대학로10길</t>
+          <t>삼일대로17길</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>12 5층</t>
+          <t>17 4층 셜록홈즈 종각</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1158,33 +1158,33 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>02-742-5252</t>
+          <t>0507-1358-0522</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37663526/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143151495</t>
+          <t>https://pcmap.place.naver.com/place/1186945281/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98651826511795&amp;y=37.56912977257185&amp;timestamp=202309071829</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>127.0028255</v>
+        <v>126.9865096</v>
       </c>
       <c r="O10" t="n">
-        <v>37.5816161</v>
+        <v>37.5690643</v>
       </c>
       <c r="P10" t="n">
-        <v>37663526</v>
+        <v>1186945281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>비밀의화원 대학로점</t>
+          <t>비트포비아 대학로</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1179</v>
+        <v>880</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1217,12 +1217,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>대학로10길</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>130 지하 1층</t>
+          <t>12 5층</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1232,27 +1232,27 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0507-1373-8901</t>
+          <t>02-742-5252</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1625220556/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143160469</t>
+          <t>https://pcmap.place.naver.com/place/37663526/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0028096&amp;y=37.5816118&amp;timestamp=202309071830</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>127.0021374</v>
+        <v>127.0028255</v>
       </c>
       <c r="O11" t="n">
-        <v>37.582893</v>
+        <v>37.5816161</v>
       </c>
       <c r="P11" t="n">
-        <v>1625220556</v>
+        <v>37663526</v>
       </c>
     </row>
     <row r="12">
@@ -1273,11 +1273,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1179</v>
+        <v>412</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1954470905/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143170041</t>
+          <t>https://pcmap.place.naver.com/place/1954470905/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0028144&amp;y=37.5824911&amp;timestamp=202309071830</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1347,11 +1347,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37429906/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143179281</t>
+          <t>https://pcmap.place.naver.com/place/37429906/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0028329&amp;y=37.582749&amp;timestamp=202309071830</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1421,11 +1421,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>453</v>
+        <v>280</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1459,12 +1459,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37629951/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143188359</t>
+          <t>https://pcmap.place.naver.com/place/37629951/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9854332&amp;y=37.5632664&amp;timestamp=202309071830</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/215618975/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143197511</t>
+          <t>https://pcmap.place.naver.com/place/215618975/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9844144&amp;y=37.5636223&amp;timestamp=202309071830</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/946227144/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143206885</t>
+          <t>https://pcmap.place.naver.com/place/946227144/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98253473292901&amp;y=37.578664906778805&amp;timestamp=202309071830</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:06</t>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
       <c r="N16" t="n">
